--- a/3331 final.xlsx
+++ b/3331 final.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liam\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liam\Desktop\comp3331\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABA8E40-7A60-4A9C-B89F-AF66962509A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4507352-3C2C-40B3-8954-9A90F530D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP fragmentation" sheetId="1" r:id="rId1"/>
     <sheet name="Design the subnets" sheetId="3" r:id="rId2"/>
+    <sheet name="Dijkstra’s algorithm" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="60">
   <si>
     <t>ID</t>
   </si>
@@ -126,6 +127,135 @@
   </si>
   <si>
     <t>http://fixmycode.github.io/IPFCalc/</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>N'</t>
+  </si>
+  <si>
+    <t>2,A</t>
+  </si>
+  <si>
+    <t>3,A</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>D(B), P(B)</t>
+  </si>
+  <si>
+    <t>D(C), P(C)</t>
+  </si>
+  <si>
+    <t>D(D), P(D)</t>
+  </si>
+  <si>
+    <t>D(E), P(E)</t>
+  </si>
+  <si>
+    <t>D(G), P(G)</t>
+  </si>
+  <si>
+    <t>D(F), P(F)</t>
+  </si>
+  <si>
+    <t>ABF</t>
+  </si>
+  <si>
+    <t>7,B</t>
+  </si>
+  <si>
+    <t>5,F</t>
+  </si>
+  <si>
+    <t>ABFG</t>
+  </si>
+  <si>
+    <t>5,G</t>
+  </si>
+  <si>
+    <t>10,G</t>
+  </si>
+  <si>
+    <t>4,G</t>
+  </si>
+  <si>
+    <t>ABFGE</t>
+  </si>
+  <si>
+    <t>8,E</t>
+  </si>
+  <si>
+    <t>ABFGEC</t>
+  </si>
+  <si>
+    <t>7,C</t>
+  </si>
+  <si>
+    <t>ABFGECD</t>
+  </si>
+  <si>
+    <t>Destination</t>
+  </si>
+  <si>
+    <t>Outgoing link</t>
+  </si>
+  <si>
+    <t>(A,B)</t>
+  </si>
+  <si>
+    <t>(A,F)</t>
+  </si>
+  <si>
+    <t>(A,G)</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Via</t>
+  </si>
+  <si>
+    <t>Node A</t>
+  </si>
+  <si>
+    <t>min DV</t>
+  </si>
+  <si>
+    <t>Node B</t>
+  </si>
+  <si>
+    <t>Node G</t>
+  </si>
+  <si>
+    <t>Node F</t>
   </si>
 </sst>
 </file>
@@ -169,7 +299,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -177,11 +307,78 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -192,6 +389,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -538,16 +765,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -576,7 +803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>IF(B2&lt;&gt;0,$G$2,0)</f>
         <v>1500</v>
@@ -611,7 +838,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A4" si="0">IF(B3&lt;&gt;0,$G$2,0)</f>
         <v>1500</v>
@@ -633,7 +860,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1500</v>
@@ -655,7 +882,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -684,7 +911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>IF(B8&lt;&gt;0,$G$8,0)</f>
         <v>1500</v>
@@ -719,7 +946,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ref="A9:A12" si="3">IF(B9&lt;&gt;0,$G$8,0)</f>
         <v>1500</v>
@@ -741,7 +968,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>1500</v>
@@ -763,7 +990,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>1500</v>
@@ -788,7 +1015,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -813,13 +1040,13 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -833,7 +1060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>6</v>
       </c>
@@ -844,23 +1071,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>24+E2</f>
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -869,4 +1096,773 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F59011-FD83-4CA1-9A3A-9372ADAF9F19}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L41" sqref="L41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2"/>
+      <c r="H4" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="J21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="9">
+        <v>2</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="8">
+        <v>2</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="8">
+        <v>3</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" s="9">
+        <v>2</v>
+      </c>
+      <c r="M23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="9">
+        <v>3</v>
+      </c>
+      <c r="F24" s="8">
+        <v>3</v>
+      </c>
+      <c r="J24" s="7"/>
+      <c r="K24" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="9">
+        <v>3</v>
+      </c>
+      <c r="N24" s="9">
+        <v>6</v>
+      </c>
+      <c r="O24" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J25" s="7"/>
+      <c r="K25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="9">
+        <v>6</v>
+      </c>
+      <c r="N25" s="9">
+        <v>3</v>
+      </c>
+      <c r="O25" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="8">
+        <v>7</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="14">
+        <v>5</v>
+      </c>
+      <c r="O26" s="9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="9">
+        <v>10</v>
+      </c>
+      <c r="O27" s="9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="9">
+        <v>2</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="8">
+        <v>2</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="9">
+        <v>5</v>
+      </c>
+      <c r="N28" s="9">
+        <v>4</v>
+      </c>
+      <c r="O28" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="9">
+        <v>5</v>
+      </c>
+      <c r="E29" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" s="7"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C33" s="9">
+        <v>3</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="9">
+        <v>2</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="9">
+        <v>3</v>
+      </c>
+      <c r="F35" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="G38" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H38" s="7"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="9">
+        <v>3</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="7"/>
+      <c r="B40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="9">
+        <v>2</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="9">
+        <v>7</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="9">
+        <v>3</v>
+      </c>
+      <c r="H43" s="9">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="20">
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="J21:K22"/>
+    <mergeCell ref="J23:J28"/>
+    <mergeCell ref="A26:B27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A31:B32"/>
+    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="L21:N21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/3331 final.xlsx
+++ b/3331 final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liam\Desktop\comp3331\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4507352-3C2C-40B3-8954-9A90F530D731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6131A67-9E11-4D86-B046-8B7261E6939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP fragmentation" sheetId="1" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
   <si>
     <t>ID</t>
   </si>
@@ -256,6 +256,21 @@
   </si>
   <si>
     <t>Node F</t>
+  </si>
+  <si>
+    <t>Q7). IP Packets on a certain network can carry a maximum of only 500 Bytes in the data portion. An application using TCP/IP on a node on this network generates a TCP segment with 1,000 Bytes in the data portion. How many IP packets are transmitted to carry this TCP segment, and what are their sizes (including the header)?</t>
+  </si>
+  <si>
+    <t>Answer: TCP segment size = Payload + Header = 1020 Bytes. IP packet can carry a maximum of 500 bytes in the data portion. 500 is not exactly divisible by 8 (500/8 = 62.5). We use the lower value 62*8 = 496 bytes. The 3 IP packets will have the following sizes (including the IP headers).</t>
+  </si>
+  <si>
+    <t>F1: 496 + 20 = 516 Bytes :: Offset=0, MF=1</t>
+  </si>
+  <si>
+    <t>F2: 496 + 20 = 516 Bytes:: Offset=62, MF=1</t>
+  </si>
+  <si>
+    <t>F3: 28 + 20 = 48 Bytes :: Offset=124, MF=0</t>
   </si>
 </sst>
 </file>
@@ -378,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -397,18 +412,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -417,7 +438,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,18 +787,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30:S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -803,7 +828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>IF(B2&lt;&gt;0,$G$2,0)</f>
         <v>1500</v>
@@ -838,7 +863,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
         <f t="shared" ref="A3:A4" si="0">IF(B3&lt;&gt;0,$G$2,0)</f>
         <v>1500</v>
@@ -860,7 +885,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1500</v>
@@ -882,7 +907,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -911,7 +936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>IF(B8&lt;&gt;0,$G$8,0)</f>
         <v>1500</v>
@@ -946,7 +971,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" ref="A9:A12" si="3">IF(B9&lt;&gt;0,$G$8,0)</f>
         <v>1500</v>
@@ -968,7 +993,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>1500</v>
@@ -990,7 +1015,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>1500</v>
@@ -1015,7 +1040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1025,7 +1050,169 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N13" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="10"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N14" s="12"/>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="10"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="10"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="10"/>
+    </row>
+    <row r="17" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="10"/>
+    </row>
+    <row r="18" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="10"/>
+    </row>
+    <row r="19" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N19" s="12"/>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="10"/>
+    </row>
+    <row r="20" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+    </row>
+    <row r="21" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N21" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="10"/>
+    </row>
+    <row r="22" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N22" s="12"/>
+      <c r="O22" s="12"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+      <c r="R22" s="12"/>
+      <c r="S22" s="12"/>
+      <c r="T22" s="10"/>
+    </row>
+    <row r="23" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N23" s="12"/>
+      <c r="O23" s="12"/>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+      <c r="R23" s="12"/>
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N24" s="12"/>
+      <c r="O24" s="12"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
+      <c r="R24" s="12"/>
+      <c r="S24" s="12"/>
+    </row>
+    <row r="25" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+      <c r="S25" s="12"/>
+    </row>
+    <row r="28" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N28" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+    </row>
+    <row r="29" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N29" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+    </row>
+    <row r="30" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N30" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+    </row>
+    <row r="31" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="N30:S30"/>
+    <mergeCell ref="N13:S19"/>
+    <mergeCell ref="N21:S25"/>
+    <mergeCell ref="N28:S28"/>
+    <mergeCell ref="N29:S29"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1040,13 +1227,13 @@
       <selection activeCell="N25" sqref="N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1060,7 +1247,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B2">
         <v>6</v>
       </c>
@@ -1071,23 +1258,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B4">
         <f>24+E2</f>
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1103,16 +1290,16 @@
   <dimension ref="A1:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L41" sqref="L41"/>
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1164,7 +1351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1188,7 +1375,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1210,7 +1397,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1230,7 +1417,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1248,7 +1435,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1264,7 +1451,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1278,7 +1465,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1286,7 +1473,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1294,7 +1481,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1302,7 +1489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1310,7 +1497,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1318,7 +1505,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1326,7 +1513,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1334,514 +1521,515 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="13"/>
+      <c r="C20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7" t="s">
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="9" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="J21" s="7" t="s">
+      <c r="F21" s="13"/>
+      <c r="J21" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7" t="s">
+      <c r="K21" s="13"/>
+      <c r="L21" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7" t="s">
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="8">
         <v>2</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="8">
+      <c r="D22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="7">
         <v>2</v>
       </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="9" t="s">
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="M22" s="9" t="s">
+      <c r="M22" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="N22" s="9" t="s">
+      <c r="N22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="7"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="9" t="s">
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="9">
+      <c r="C23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" s="8">
         <v>3</v>
       </c>
-      <c r="E23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="8">
+      <c r="E23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="7">
         <v>3</v>
       </c>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K23" s="9" t="s">
+      <c r="K23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="8">
         <v>2</v>
       </c>
-      <c r="M23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N23" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="O23" s="9">
+      <c r="M23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="O23" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="9" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="9">
+      <c r="C24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E24" s="8">
         <v>3</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <v>3</v>
       </c>
-      <c r="J24" s="7"/>
-      <c r="K24" s="9" t="s">
+      <c r="J24" s="13"/>
+      <c r="K24" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="L24" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M24" s="9">
+      <c r="L24" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M24" s="8">
         <v>3</v>
       </c>
-      <c r="N24" s="9">
+      <c r="N24" s="8">
         <v>6</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="J25" s="7"/>
-      <c r="K25" s="9" t="s">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J25" s="13"/>
+      <c r="K25" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L25" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M25" s="9">
+      <c r="L25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M25" s="8">
         <v>6</v>
       </c>
-      <c r="N25" s="9">
+      <c r="N25" s="8">
         <v>3</v>
       </c>
-      <c r="O25" s="9">
+      <c r="O25" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="10" t="s">
+      <c r="B26" s="13"/>
+      <c r="C26" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="7" t="s">
+      <c r="D26" s="17"/>
+      <c r="E26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="14" t="s">
+      <c r="J26" s="13"/>
+      <c r="K26" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="7">
         <v>7</v>
       </c>
-      <c r="M26" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="N26" s="14">
+      <c r="M26" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N26" s="9">
         <v>5</v>
       </c>
-      <c r="O26" s="9">
+      <c r="O26" s="8">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="9" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="14" t="s">
+      <c r="E27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="N27" s="9">
+      <c r="L27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="N27" s="8">
         <v>10</v>
       </c>
-      <c r="O27" s="9">
+      <c r="O27" s="8">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="8">
         <v>2</v>
       </c>
-      <c r="D28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E28" s="8">
+      <c r="D28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="14" t="s">
+      <c r="J28" s="13"/>
+      <c r="K28" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M28" s="9">
+      <c r="L28" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M28" s="8">
         <v>5</v>
       </c>
-      <c r="N28" s="9">
+      <c r="N28" s="8">
         <v>4</v>
       </c>
-      <c r="O28" s="14">
+      <c r="O28" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="9" t="s">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" s="15"/>
+      <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D29" s="9">
+      <c r="C29" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D29" s="8">
         <v>5</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7" t="s">
+      <c r="B31" s="13"/>
+      <c r="C31" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7" t="s">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="9" t="s">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="7" t="s">
+      <c r="F32" s="13"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="8">
         <v>3</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="8">
+      <c r="D33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F33" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="9" t="s">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
+      <c r="B34" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C34" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D34" s="9">
+      <c r="C34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D34" s="8">
         <v>2</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="8">
+      <c r="E34" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F34" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="7"/>
-      <c r="B35" s="9" t="s">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
+      <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E35" s="9">
+      <c r="C35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E35" s="8">
         <v>3</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="7">
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="7" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7" t="s">
+      <c r="B37" s="13"/>
+      <c r="C37" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7" t="s">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="9" t="s">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E38" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G38" s="14" t="s">
+      <c r="G38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="7"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
+      <c r="H38" s="13"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="8">
         <v>3</v>
       </c>
-      <c r="D39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H39" s="9">
+      <c r="D39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G39" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="9" t="s">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
+      <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D40" s="9">
+      <c r="C40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D40" s="8">
         <v>2</v>
       </c>
-      <c r="E40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H40" s="9">
+      <c r="E40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="9" t="s">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E41" s="9">
+      <c r="C41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="8">
         <v>7</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H41" s="9">
+      <c r="F41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H41" s="8">
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="7"/>
-      <c r="B42" s="14" t="s">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F42" s="9">
+      <c r="C42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F42" s="8">
         <v>1</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H42" s="9">
+      <c r="G42" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H42" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="14" t="s">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="E43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G43" s="9">
+      <c r="C43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="G43" s="8">
         <v>3</v>
       </c>
-      <c r="H43" s="9">
+      <c r="H43" s="8">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A37:B38"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C37:G37"/>
     <mergeCell ref="A39:A43"/>
@@ -1854,14 +2042,13 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="C26:D26"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="L21:N21"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A20:B21"/>
     <mergeCell ref="F20:F21"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="H37:H38"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="L21:N21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/3331 final.xlsx
+++ b/3331 final.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liam\Desktop\comp3331\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6131A67-9E11-4D86-B046-8B7261E6939E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA03D7A1-D0C5-4CD4-BE2C-6B66C82CF6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="886" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IP fragmentation" sheetId="1" r:id="rId1"/>
     <sheet name="Design the subnets" sheetId="3" r:id="rId2"/>
     <sheet name="Dijkstra’s algorithm" sheetId="4" r:id="rId3"/>
+    <sheet name="CSMACD" sheetId="14" r:id="rId4"/>
+    <sheet name="Wifi" sheetId="10" r:id="rId5"/>
+    <sheet name="CRC" sheetId="11" r:id="rId6"/>
+    <sheet name="ARP" sheetId="12" r:id="rId7"/>
+    <sheet name="A day in the life" sheetId="13" r:id="rId8"/>
+    <sheet name="Security Questions" sheetId="9" r:id="rId9"/>
+    <sheet name="RSA" sheetId="5" r:id="rId10"/>
+    <sheet name="RSA encoder" sheetId="8" r:id="rId11"/>
+    <sheet name="RSA decoder" sheetId="6" r:id="rId12"/>
+    <sheet name="CBC" sheetId="7" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="227">
   <si>
     <t>ID</t>
   </si>
@@ -272,12 +282,546 @@
   <si>
     <t>F3: 28 + 20 = 48 Bytes :: Offset=124, MF=0</t>
   </si>
+  <si>
+    <t>1. choose two large prime numbers p, q</t>
+  </si>
+  <si>
+    <t>Suppose you wish to send a message that is digitally signed using the RSA public key encryption. Your RSA public key is (65, 35), and that of your partner is (55, 23). If the message you are sending leads to a message digest of 2, what is the value of the digitally signed message digest that you will send to your partner?</t>
+  </si>
+  <si>
+    <t>My public key: n = 65, e = 35</t>
+  </si>
+  <si>
+    <t>My partner’s key: n = 55, e = 23. I can ignore this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I need to sign the message digest (H(m)) with my private key, so I need to find a value for d. </t>
+  </si>
+  <si>
+    <t>Since 65 = 5 x 13, I can say p = 5 and q = 13.</t>
+  </si>
+  <si>
+    <t>https://www.calculatorsoup.com/calculators/math/prime-factors.php</t>
+  </si>
+  <si>
+    <t>prime factorisation 65, we have p = 13, q = 5</t>
+  </si>
+  <si>
+    <t>z = (p-1)(q-1)</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>RSA public key</t>
+  </si>
+  <si>
+    <t>p-1</t>
+  </si>
+  <si>
+    <t>q-1</t>
+  </si>
+  <si>
+    <t>2. compute n = pq, z = (p-1)(q-1)</t>
+  </si>
+  <si>
+    <t>z</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>3. choose e (with e&lt;n) that has no common factors</t>
+  </si>
+  <si>
+    <t>with z (e, z are “relatively prime”).</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>public key 1st number</t>
+  </si>
+  <si>
+    <t>public key 2nd number</t>
+  </si>
+  <si>
+    <t>check button</t>
+  </si>
+  <si>
+    <t>4. choose d such that ed-1 is exactly divisible by z.</t>
+  </si>
+  <si>
+    <t>https://www.mathsisfun.com/numbers/coprime-calculator.html</t>
+  </si>
+  <si>
+    <t>ed - 1</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>change this value to make ed-1=0</t>
+  </si>
+  <si>
+    <t>5. private key is (65,59)</t>
+  </si>
+  <si>
+    <t>6.to encrypt message m (&lt;n), compute</t>
+  </si>
+  <si>
+    <t>c = m^e mod n</t>
+  </si>
+  <si>
+    <t>message digest of 2</t>
+  </si>
+  <si>
+    <t>2^59 mod 65</t>
+  </si>
+  <si>
+    <t>c in step 6</t>
+  </si>
+  <si>
+    <t>message bit</t>
+  </si>
+  <si>
+    <t>use python if error</t>
+  </si>
+  <si>
+    <t>Therefore, c is the encrypted digital signature that I will send my partner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My partner can then decrypt using my public key = c^e mod n = 2. </t>
+  </si>
+  <si>
+    <t>An RSA public-key algorithm is used for communicating characters of the English alphabet with plaintext 1 representing A, 2 representing B, 3 representing C and so on. Plaintext 27 represents a blank space character. The public key pair is (e, n) = (27, 55) i.e. ciphertext C is obtained form the plaintext P using the formula, C = P^27 mod 55. Determine the plaintext message corresponding to the following ciphertext. Each ciphertext number in parenthesis corresponds to a single plaintext character.</t>
+  </si>
+  <si>
+    <t>(2) (1) (36) (36) (20) (3) (2) (5) (23) (4) (49) (1) (20) (24)</t>
+  </si>
+  <si>
+    <t>cipher</t>
+  </si>
+  <si>
+    <t>plain text</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are using DES with cipher block chaining. Assume that all of the plaintext blocks you wish to send are just strings of 0’s. What is the relationship between consecutive ciphertext blocks you end up sending? </t>
+  </si>
+  <si>
+    <t>original message</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>choose a random initialiser</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>new random cipher</t>
+  </si>
+  <si>
+    <t>output</t>
+  </si>
+  <si>
+    <t>first round</t>
+  </si>
+  <si>
+    <t>second round</t>
+  </si>
+  <si>
+    <t>Therefore, the relationship between the consecutive ciphertext blocks (that you end up sending) is that each successive ciphertext block is the output of applying DES to the previous ciphertext block, with an apparent disregard for the input block taken from the sender.</t>
+  </si>
+  <si>
+    <t>third round</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>second message</t>
+  </si>
+  <si>
+    <t>third message</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>cipher text</t>
+  </si>
+  <si>
+    <t>ciphertext-only attack</t>
+  </si>
+  <si>
+    <t>known-plaintext attack</t>
+  </si>
+  <si>
+    <t>chosen-plaintext attack?</t>
+  </si>
+  <si>
+    <t>Playback attack</t>
+  </si>
+  <si>
+    <t>Trudy records Alice’s packet and later plays it back to Bob</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Trudy can get ciphertext for chosen plaintext</t>
+  </si>
+  <si>
+    <t>Trudy has (part of) plaintext corresponding to ciphertext</t>
+  </si>
+  <si>
+    <t>Trudy has ciphertext she can analyze</t>
+  </si>
+  <si>
+    <t>type of attack</t>
+  </si>
+  <si>
+    <t>what's happening</t>
+  </si>
+  <si>
+    <t>man in the middle attack</t>
+  </si>
+  <si>
+    <t>Trudy poses as Alice (to Bob) and as Bob (to Alice)</t>
+  </si>
+  <si>
+    <t>Digital Signature</t>
+  </si>
+  <si>
+    <t>Nonce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A nonce is used to ensure that the person being authenticated is “live.” Nonces thus are used to combat playback attacks. </t>
+  </si>
+  <si>
+    <t>The internet BGP routing protocol uses a MAC rather than public key</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signing messages using public key encryption is computationally expensive. MACs are much more computationally efficient. Hence BGP resorts to using MAC. </t>
+  </si>
+  <si>
+    <t>Message Integrity and MAC</t>
+  </si>
+  <si>
+    <t>One requirement of a MAC is that given a message M, it is very difficult to find another message M’ that has the same message digest and, as a corollary, that given a MAC it is difficult to find a message M’’ that has that given MAC value. We have “message integrity” in the sense that we have reasonable confidence that given a message M and its signed MAC that the message was not altered since the MAC was computed and signed. This is not true of the Internet checksum, where we have seen that it is easy to find two messages with the same Internet checksum</t>
+  </si>
+  <si>
+    <t>confidentiality</t>
+  </si>
+  <si>
+    <t>authentication</t>
+  </si>
+  <si>
+    <t>message integrity</t>
+  </si>
+  <si>
+    <t>access and availability</t>
+  </si>
+  <si>
+    <t>only sender, intended receiver should “understand” message contents</t>
+  </si>
+  <si>
+    <t>sender, receiver want to confirm identity of each other</t>
+  </si>
+  <si>
+    <t>sender, receiver want to ensure message not altered (in transit, or afterwards) without detection</t>
+  </si>
+  <si>
+    <t>services must be accessible and available to users</t>
+  </si>
+  <si>
+    <t>Network Security</t>
+  </si>
+  <si>
+    <t>symmetric key crypto</t>
+  </si>
+  <si>
+    <t>public key crypto</t>
+  </si>
+  <si>
+    <t>radically different approach</t>
+  </si>
+  <si>
+    <t>sender, receiver do not share secret key</t>
+  </si>
+  <si>
+    <t>public encryption key known to all, private decryption key known only to receiver</t>
+  </si>
+  <si>
+    <t>requires sender, receiver know shared secret key</t>
+  </si>
+  <si>
+    <t>example: AES, DES, RC4</t>
+  </si>
+  <si>
+    <t>Message integrity &amp; Non-repudiation</t>
+  </si>
+  <si>
+    <t>Hidden Terminal problem:</t>
+  </si>
+  <si>
+    <t>How 802.11 works:</t>
+  </si>
+  <si>
+    <t>CSMA/CA</t>
+  </si>
+  <si>
+    <t>(1) Distributed Coordination Function (DCF)</t>
+  </si>
+  <si>
+    <t>If sender senses channel idle for DIFS then transmit entire frame.</t>
+  </si>
+  <si>
+    <t>If sender senses channel busy, then use random backoff time to wait for channel idel.</t>
+  </si>
+  <si>
+    <t>If receiver succefully receives frame, then return ACK after SIFS.</t>
+  </si>
+  <si>
+    <t>(2) For some long data frames, RTS-CTS</t>
+  </si>
+  <si>
+    <t>Sender transmits small request-to-send(RTS) to receiver. If successful, receiver broadcasts clear-to-send(CTS) to all nodes as response. Then sender will start tranmist data frame, while other senders defer transmissions.</t>
+  </si>
+  <si>
+    <t>Hidden terminal problem refers to a scenario whereby two nodes that cannot hear each other attempt to communicate to an intermediate node that can hear both of them. This means carrier sensing does not detect whether a transmission to the intermediate node will face any collision as the channel is found clear by both the nodes.</t>
+  </si>
+  <si>
+    <t>Q: There are two coffee shops next to each other. Two different ISPs (ISP-1 and ISP-2) each with a unique SSID provide 802.11 based Wi-Fi access to the coffee shops. Accidentally, both the ISPs configure their APs to operate on channel 11 not aware that their wireless coverage almost completely overlaps being too close to each other. Now consider two wireless hosts, one associated with ISP-1 and the other associated with ISP-2, that try to access the Internet simultaneously. Will communication be at all possible for the wireless hosts? Answer YES or NO and BRIEFLY explain why.</t>
+  </si>
+  <si>
+    <t>Solution:</t>
+  </si>
+  <si>
+    <t>Yes. Communication can still be possible because of 802.11 using CSMA/CA on a shared medium. RTS-CTS will be used between each hosts and APs to avoid collisions, or any collisions will be handled with binary exponential back off.</t>
+  </si>
+  <si>
+    <t>Find R</t>
+  </si>
+  <si>
+    <t>Check correct</t>
+  </si>
+  <si>
+    <t>Question: how to determine interface’s MAC address knowing its IP address?</t>
+  </si>
+  <si>
+    <t>Addressing: routing in same LAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ARP query is encapsulated in a broadcast Ethernet frame. All nodes that receive it will process this frame. There is a type field in the Ethernet header which tells the receiving host where it should pass on the frame. ARP frames have a specific value. </t>
+  </si>
+  <si>
+    <t>https://www.browserling.com/tools/ip-to-bin</t>
+  </si>
+  <si>
+    <t>https://www.browserling.com/tools/bin-to-ip</t>
+  </si>
+  <si>
+    <t>128.8.16.0/20</t>
+  </si>
+  <si>
+    <t>128.8.24.0/21</t>
+  </si>
+  <si>
+    <t>128.8.128.0/24</t>
+  </si>
+  <si>
+    <t>128.8.128.0/28</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>port 1</t>
+  </si>
+  <si>
+    <t>port 2</t>
+  </si>
+  <si>
+    <t>port 3</t>
+  </si>
+  <si>
+    <t>port 4</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>port 5</t>
+  </si>
+  <si>
+    <t>from</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>128.8.16.1</t>
+  </si>
+  <si>
+    <t>128.8.24.1</t>
+  </si>
+  <si>
+    <t>128.8.128.1</t>
+  </si>
+  <si>
+    <t>128.8.31.254</t>
+  </si>
+  <si>
+    <t>Binary</t>
+  </si>
+  <si>
+    <t>128.8.128.254</t>
+  </si>
+  <si>
+    <t>128.8.128.14</t>
+  </si>
+  <si>
+    <t>10000000.00001000.00011001.11011111</t>
+  </si>
+  <si>
+    <t>128.8.25.223</t>
+  </si>
+  <si>
+    <t>155.128.45.21</t>
+  </si>
+  <si>
+    <t>128.8.128.252</t>
+  </si>
+  <si>
+    <t>10000000.00001000.10000000.00000101</t>
+  </si>
+  <si>
+    <r>
+      <t>10000000.00001000.10000000.0000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10000000.00001000.10000000.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>00000000</t>
+    </r>
+  </si>
+  <si>
+    <t>128.8.128.5</t>
+  </si>
+  <si>
+    <r>
+      <t>10000000.00001000.0001100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.00000000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10000000.00001000.0001</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0000.00000000</t>
+    </r>
+  </si>
+  <si>
+    <t>MAC address is different from IP address. 48 bits long hexadecimal colon notion</t>
+  </si>
+  <si>
+    <t>Because we need to use the IP addresses to decide forwarding tables, the source and destination IP addresses are not changed from end to end</t>
+  </si>
+  <si>
+    <t>A E and the router uses ARP to determine the physical addresses required for data link layer frame</t>
+  </si>
+  <si>
+    <t>ARP</t>
+  </si>
+  <si>
+    <t>Backoff algorithm</t>
+  </si>
+  <si>
+    <t>if station A and station B draw the same number, there will be a collision again, the set will be bigger so possibility of getting same number is less</t>
+  </si>
+  <si>
+    <t>A is sending data to B, C can't hear this, and therefore C is able to send a message to D if using Carrier sensing scheme.</t>
+  </si>
+  <si>
+    <t>Before data is sent, RTS and CTS are to be sent.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,8 +843,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,8 +910,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -389,11 +992,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -426,6 +1038,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -444,11 +1062,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -499,6 +1228,697 @@
         <a:xfrm>
           <a:off x="0" y="2857500"/>
           <a:ext cx="5380952" cy="3580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>86095</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>170330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE4A351-EDF4-4187-AF7B-9D7A5DB1EDD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="3944471"/>
+          <a:ext cx="5689035" cy="2859741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>78059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>110065</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D761D9AA-3CA6-44CC-B80B-A3D3E823C3AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7295288"/>
+          <a:ext cx="5705322" cy="3067912"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76201</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>135819</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14228BB9-20CB-4EDF-920C-46C7112BA7BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="11049000"/>
+          <a:ext cx="5676900" cy="3374319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>302028</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>532811</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>166255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA7A416-AA02-4D0A-9DEE-71A2D9C191CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5913119" y="3920837"/>
+          <a:ext cx="5107583" cy="2909454"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>272142</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>62745</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>113305</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>180109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32D15AF2-BD8F-43DB-9BD9-64709A4B826F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5867399" y="7279974"/>
+          <a:ext cx="5327563" cy="3078278"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>108859</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>97972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>87087</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>7467</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F49F4A4E-4918-4D8B-A102-96E391BCF3F2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="108859" y="468086"/>
+          <a:ext cx="6683828" cy="3240524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>443104</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>65314</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{170E2FE3-B6E9-4CDA-A652-FE82DD98DE36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4147458"/>
+          <a:ext cx="5929504" cy="4615542"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>170493</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634736CC-FB3D-4B71-A9C8-2FFA84E9FBC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="5196841"/>
+          <a:ext cx="5047292" cy="2659380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>78624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11323</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46917324-AD5D-4826-892F-740634D75D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5280660" y="5092584"/>
+          <a:ext cx="5703463" cy="2733156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>507773</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A54FC296-E3B2-4F80-AF1A-A9A458E84C1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7985760"/>
+          <a:ext cx="5384573" cy="2964180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>159406</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>32656</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>45719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2BB643E-FDBE-45B2-9C16-649466F3F5B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="11391286"/>
+          <a:ext cx="5519056" cy="2812393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>28333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17034482-59B4-428E-A448-6FEA9FCEA050}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="182881"/>
+          <a:ext cx="4213860" cy="2771532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>414020</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>75565</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="A picture containing text&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B497D5C0-8530-44BF-8535-02BFF31BF391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5486400" y="182880"/>
+          <a:ext cx="4071620" cy="2635885"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>52705</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Table&#10;&#10;Description automatically generated">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E569E18-6629-448D-82C2-2AC2D06840A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="365760"/>
+          <a:ext cx="5534025" cy="2247265"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>293134</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E0FCCBD-38CE-43AC-AB77-0397603B4527}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3954780" y="121920"/>
+          <a:ext cx="1885714" cy="2609524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,17 +2209,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N30" sqref="N30:S30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -828,7 +2248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>IF(B2&lt;&gt;0,$G$2,0)</f>
         <v>1500</v>
@@ -863,7 +2283,7 @@
         <v>3980</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3">
         <f t="shared" ref="A3:A4" si="0">IF(B3&lt;&gt;0,$G$2,0)</f>
         <v>1500</v>
@@ -885,7 +2305,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4">
         <f t="shared" si="0"/>
         <v>1500</v>
@@ -907,7 +2327,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -936,7 +2356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>IF(B8&lt;&gt;0,$G$8,0)</f>
         <v>1500</v>
@@ -971,7 +2391,7 @@
         <v>5520</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9">
         <f t="shared" ref="A9:A12" si="3">IF(B9&lt;&gt;0,$G$8,0)</f>
         <v>1500</v>
@@ -993,7 +2413,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10">
         <f t="shared" si="3"/>
         <v>1500</v>
@@ -1015,7 +2435,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11">
         <f t="shared" si="3"/>
         <v>1500</v>
@@ -1040,7 +2460,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -1050,72 +2470,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N13" s="12" t="s">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N13" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
       <c r="T13" s="10"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="14"/>
+      <c r="S14" s="14"/>
       <c r="T14" s="10"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
       <c r="T15" s="10"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="14"/>
+      <c r="S16" s="14"/>
       <c r="T16" s="10"/>
     </row>
-    <row r="17" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
+    <row r="17" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="14"/>
+      <c r="S17" s="14"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
+    <row r="18" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
       <c r="T18" s="10"/>
     </row>
-    <row r="19" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
+    <row r="19" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="14"/>
+      <c r="R19" s="14"/>
+      <c r="S19" s="14"/>
       <c r="T19" s="10"/>
     </row>
-    <row r="20" spans="14:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N20" s="10"/>
       <c r="O20" s="10"/>
       <c r="P20" s="10"/>
@@ -1124,81 +2544,81 @@
       <c r="S20" s="10"/>
       <c r="T20" s="10"/>
     </row>
-    <row r="21" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N21" s="12" t="s">
+    <row r="21" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N21" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="O21" s="12"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="12"/>
-      <c r="S21" s="12"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="14"/>
+      <c r="S21" s="14"/>
       <c r="T21" s="10"/>
     </row>
-    <row r="22" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
-      <c r="R22" s="12"/>
-      <c r="S22" s="12"/>
+    <row r="22" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14"/>
+      <c r="S22" s="14"/>
       <c r="T22" s="10"/>
     </row>
-    <row r="23" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-    </row>
-    <row r="24" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N24" s="12"/>
-      <c r="O24" s="12"/>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="12"/>
-    </row>
-    <row r="25" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="12"/>
-    </row>
-    <row r="28" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N28" s="11" t="s">
+    <row r="23" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="14"/>
+      <c r="R23" s="14"/>
+      <c r="S23" s="14"/>
+    </row>
+    <row r="24" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="14"/>
+      <c r="R24" s="14"/>
+      <c r="S24" s="14"/>
+    </row>
+    <row r="25" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="14"/>
+      <c r="R25" s="14"/>
+      <c r="S25" s="14"/>
+    </row>
+    <row r="28" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N28" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-    </row>
-    <row r="29" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N29" s="11" t="s">
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+    </row>
+    <row r="29" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-    </row>
-    <row r="30" spans="14:20" x14ac:dyDescent="0.25">
-      <c r="N30" s="11" t="s">
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+    </row>
+    <row r="30" spans="14:20" x14ac:dyDescent="0.3">
+      <c r="N30" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-    </row>
-    <row r="31" spans="14:20" x14ac:dyDescent="0.25">
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+    </row>
+    <row r="31" spans="14:20" x14ac:dyDescent="0.3">
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -1214,26 +2634,1360 @@
     <mergeCell ref="N29:S29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12470751-3958-4975-B36F-7DB534976D43}">
+  <dimension ref="A1:Q23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="J11" s="23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="3">
+        <v>55</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="3">
+        <v>23</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="H15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="3">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <f>I15*I16</f>
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="11">
+        <f>I15-1</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H18" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="11">
+        <f>I16-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="11">
+        <f>I17*I18</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="25">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="4">
+        <f>MOD((I14*I20-1),I19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H22" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="4">
+        <f>MOD(POWER(I22,I20),I13)</f>
+        <v>18</v>
+      </c>
+      <c r="J23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:Q6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+      <formula>$I$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>$I$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAB62817-DCCD-4258-A3EC-DF52ECF44801}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="3">
+        <v>33</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="3">
+        <v>9</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>8</v>
+      </c>
+      <c r="R14" s="11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="3">
+        <v>3</v>
+      </c>
+      <c r="P15" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>5</v>
+      </c>
+      <c r="R15" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="3">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <f>I15*I16</f>
+        <v>33</v>
+      </c>
+      <c r="N16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>12</v>
+      </c>
+      <c r="R16" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="11">
+        <f>I15-1</f>
+        <v>2</v>
+      </c>
+      <c r="P17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>12</v>
+      </c>
+      <c r="R17" s="11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H18" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="11">
+        <f>I16-1</f>
+        <v>10</v>
+      </c>
+      <c r="P18" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>15</v>
+      </c>
+      <c r="R18" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="11">
+        <f>I17*I18</f>
+        <v>20</v>
+      </c>
+      <c r="P19" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="25">
+        <v>9</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="4">
+        <f>MOD((I14*I20-1),I19)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="11"/>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H22" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I22" s="3">
+        <v>15</v>
+      </c>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
+      <c r="R22" s="11"/>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I23" s="4">
+        <f>MOD(POWER(I22,I20),I13)</f>
+        <v>3</v>
+      </c>
+      <c r="J23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
+      <c r="R23" s="11"/>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="11"/>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:Q9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+      <formula>$I$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$I$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFF1BAE6-15C1-4D4D-B449-7DCA1E4FD5A2}">
+  <dimension ref="A1:R27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="13" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+    </row>
+    <row r="2" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+    </row>
+    <row r="3" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+    </row>
+    <row r="4" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+    </row>
+    <row r="5" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+    </row>
+    <row r="6" spans="1:18" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>83</v>
+      </c>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H13" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="I13" s="3">
+        <v>55</v>
+      </c>
+      <c r="J13" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q13" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" s="3">
+        <v>27</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>8</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H15" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="I15" s="3">
+        <v>5</v>
+      </c>
+      <c r="P15" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>1</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" t="s">
+        <v>95</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="I16" s="3">
+        <v>11</v>
+      </c>
+      <c r="M16">
+        <f>I15*I16</f>
+        <v>55</v>
+      </c>
+      <c r="N16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" s="11">
+        <v>36</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>16</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I17" s="11">
+        <f>I15-1</f>
+        <v>4</v>
+      </c>
+      <c r="P17" s="11">
+        <v>36</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>16</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H18" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I18" s="11">
+        <f>I16-1</f>
+        <v>10</v>
+      </c>
+      <c r="P18" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>25</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I19" s="11">
+        <f>I17*I18</f>
+        <v>40</v>
+      </c>
+      <c r="P19" s="11">
+        <v>3</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>27</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H20" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="25">
+        <v>3</v>
+      </c>
+      <c r="J20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>8</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I21" s="4">
+        <f>MOD((I14*I20-1),I19)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="11">
+        <v>5</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>15</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H22" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22" s="3">
+        <v>2</v>
+      </c>
+      <c r="P22" s="11">
+        <v>23</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>12</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" s="4">
+        <f>MOD(POWER(I22,I20),I13)</f>
+        <v>8</v>
+      </c>
+      <c r="J23" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="11">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>9</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="P24" s="11">
+        <v>49</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>4</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P25" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>1</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P26" s="11">
+        <v>20</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>25</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="P27" s="11">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>19</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:Q9"/>
+  </mergeCells>
+  <conditionalFormatting sqref="M16">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+      <formula>$I$13</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>$I$13</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E64071DF-4A3E-41C6-A3F1-2D22F5BB3E05}">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.21875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" s="29" t="str">
+        <f>B4</f>
+        <v>010</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="31">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="32">
+        <f>B8</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="33">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" s="32" t="str">
+        <f>B12</f>
+        <v>010</v>
+      </c>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J1:P7"/>
+    <mergeCell ref="J12:P15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D865EDF3-7AE2-43E7-9EE8-4D08F08E70B2}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H59" sqref="H59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1247,7 +4001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B2">
         <v>6</v>
       </c>
@@ -1258,30 +4012,207 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4">
         <f>24+E2</f>
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>193</v>
+      </c>
+      <c r="C10" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D11" t="s">
+        <v>205</v>
+      </c>
+      <c r="E11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>190</v>
+      </c>
+      <c r="B12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C12" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" t="s">
+        <v>205</v>
+      </c>
+      <c r="E12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>191</v>
+      </c>
+      <c r="B13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C13" t="s">
+        <v>204</v>
+      </c>
+      <c r="D13" t="s">
+        <v>207</v>
+      </c>
+      <c r="E13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>192</v>
+      </c>
+      <c r="B14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" t="s">
+        <v>208</v>
+      </c>
+      <c r="E14" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>216</v>
+      </c>
+      <c r="B18" t="s">
+        <v>197</v>
+      </c>
+      <c r="E18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E19" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>211</v>
+      </c>
+      <c r="B20" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>222</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A77:G78"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1289,17 +4220,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64F59011-FD83-4CA1-9A3A-9372ADAF9F19}">
   <dimension ref="A1:O43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -1325,7 +4256,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1351,7 +4282,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1375,7 +4306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1397,7 +4328,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1417,7 +4348,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1435,7 +4366,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1451,7 +4382,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1465,7 +4396,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>47</v>
       </c>
@@ -1473,7 +4404,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1481,7 +4412,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1489,7 +4420,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1497,7 +4428,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1505,7 +4436,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1513,7 +4444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1521,23 +4452,23 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="13" t="s">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="15"/>
+      <c r="C20" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13" t="s">
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="8" t="s">
         <v>18</v>
       </c>
@@ -1547,22 +4478,22 @@
       <c r="E21" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="J21" s="13" t="s">
+      <c r="F21" s="15"/>
+      <c r="J21" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13" t="s">
+      <c r="K21" s="15"/>
+      <c r="L21" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13" t="s">
+      <c r="M21" s="15"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1580,8 +4511,8 @@
       <c r="F22" s="7">
         <v>2</v>
       </c>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
       <c r="L22" s="8" t="s">
         <v>18</v>
       </c>
@@ -1591,10 +4522,10 @@
       <c r="N22" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="13"/>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
+      <c r="O22" s="15"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
       <c r="B23" s="8" t="s">
         <v>23</v>
       </c>
@@ -1610,7 +4541,7 @@
       <c r="F23" s="7">
         <v>3</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" s="15" t="s">
         <v>53</v>
       </c>
       <c r="K23" s="8" t="s">
@@ -1629,8 +4560,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="15"/>
       <c r="B24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1646,7 +4577,7 @@
       <c r="F24" s="7">
         <v>3</v>
       </c>
-      <c r="J24" s="13"/>
+      <c r="J24" s="15"/>
       <c r="K24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1663,8 +4594,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="J25" s="13"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="J25" s="15"/>
       <c r="K25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1681,19 +4612,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="13" t="s">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="16" t="s">
+      <c r="B26" s="15"/>
+      <c r="C26" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="17"/>
-      <c r="E26" s="13" t="s">
+      <c r="D26" s="19"/>
+      <c r="E26" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="J26" s="13"/>
+      <c r="J26" s="15"/>
       <c r="K26" s="9" t="s">
         <v>19</v>
       </c>
@@ -1710,17 +4641,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
       <c r="C27" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="E27" s="15"/>
+      <c r="J27" s="15"/>
       <c r="K27" s="9" t="s">
         <v>20</v>
       </c>
@@ -1737,8 +4668,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>53</v>
       </c>
       <c r="B28" s="8" t="s">
@@ -1753,7 +4684,7 @@
       <c r="E28" s="7">
         <v>2</v>
       </c>
-      <c r="J28" s="13"/>
+      <c r="J28" s="15"/>
       <c r="K28" s="9" t="s">
         <v>21</v>
       </c>
@@ -1770,8 +4701,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
       <c r="B29" s="8" t="s">
         <v>19</v>
       </c>
@@ -1785,23 +4716,23 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13" t="s">
+      <c r="B31" s="15"/>
+      <c r="C31" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13" t="s">
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
       <c r="C32" s="8" t="s">
         <v>17</v>
       </c>
@@ -1811,10 +4742,10 @@
       <c r="E32" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="F32" s="15"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1833,8 +4764,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="15"/>
       <c r="B34" s="8" t="s">
         <v>21</v>
       </c>
@@ -1851,8 +4782,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="15"/>
       <c r="B35" s="8" t="s">
         <v>23</v>
       </c>
@@ -1869,25 +4800,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13" t="s">
+      <c r="B37" s="15"/>
+      <c r="C37" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="13"/>
-      <c r="E37" s="13"/>
-      <c r="F37" s="13"/>
-      <c r="G37" s="13"/>
-      <c r="H37" s="13" t="s">
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
       <c r="C38" s="8" t="s">
         <v>17</v>
       </c>
@@ -1903,10 +4834,10 @@
       <c r="G38" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="13" t="s">
+      <c r="H38" s="15"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1931,8 +4862,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="13"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="15"/>
       <c r="B40" s="8" t="s">
         <v>19</v>
       </c>
@@ -1955,8 +4886,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="15"/>
       <c r="B41" s="8" t="s">
         <v>20</v>
       </c>
@@ -1979,8 +4910,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="15"/>
       <c r="B42" s="9" t="s">
         <v>21</v>
       </c>
@@ -2003,8 +4934,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="15"/>
       <c r="B43" s="9" t="s">
         <v>22</v>
       </c>
@@ -2029,6 +4960,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="O21:O22"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A37:B38"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="C37:G37"/>
@@ -2043,12 +4980,475 @@
     <mergeCell ref="A33:A35"/>
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="H37:H38"/>
-    <mergeCell ref="O21:O22"/>
-    <mergeCell ref="L21:N21"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="F20:F21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0832CF00-9923-4938-8947-98C66837EBB1}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K44" sqref="K43:K44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>224</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD79DD70-1455-4EAD-9500-63F93990C78F}">
+  <dimension ref="A1:J56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="43" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+    </row>
+    <row r="16" spans="1:9" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+    </row>
+    <row r="40" spans="10:10" x14ac:dyDescent="0.3">
+      <c r="J40" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A14:I16"/>
+    <mergeCell ref="A19:I22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D03B9E-4763-43CB-A1BE-B5A307E8DDA1}">
+  <dimension ref="A1:J1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>182</v>
+      </c>
+      <c r="J1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07CF469-ACE3-4068-9FCF-AE91ECDCC997}">
+  <dimension ref="A1:O16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>184</v>
+      </c>
+      <c r="K1" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="47" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K1:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23C839EE-1807-4F74-99D8-A514665A169F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E36FE3B-61EE-4754-845A-61D7C14EF75E}">
+  <dimension ref="A1:D24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25" customWidth="1"/>
+    <col min="2" max="2" width="68" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="12"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="12"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="39"/>
+      <c r="B12" s="34"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="B13" s="42"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="40"/>
+      <c r="B24" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A13:B13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
